--- a/Stocks/AJANTPHARM.xlsx
+++ b/Stocks/AJANTPHARM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1654.2166666666665</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1392.6782910796458</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1401.4665975567452</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>15.938867955195205</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1.9500000000000455</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>33.950000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>5.743740795287313E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1465.0494043460635</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-39.702160475166693</v>
       </c>
       <c r="Y67">
         <v>-33.416010102130898</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>1400.15</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>1391.0500000000002</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>1387.0500000000002</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>1383</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1235</v>
+      </c>
+      <c r="D83">
+        <v>1248.95</v>
+      </c>
+      <c r="E83">
+        <v>1211.05</v>
+      </c>
+      <c r="F83">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1228.8</v>
+      </c>
+      <c r="H83">
+        <v>1212.9736324812482</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1236.8255172590887</v>
+      </c>
+      <c r="K83">
+        <v>1188.2880035252501</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>54.111784416139642</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>15.350000000000136</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>37.900000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.40501319261213981</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1230.2610562416644</v>
+      </c>
+      <c r="W83">
+        <v>1296.0370125374297</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-65.775956295765354</v>
+      </c>
+      <c r="Y83">
+        <v>-69.763773481616198</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1225</v>
+      </c>
+      <c r="D84">
+        <v>1229.9000000000001</v>
+      </c>
+      <c r="E84">
+        <v>1190</v>
+      </c>
+      <c r="F84">
+        <v>1194.45</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1204.7833333333335</v>
+      </c>
+      <c r="H84">
+        <v>1208.8784829072908</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1235.2865134237356</v>
+      </c>
+      <c r="K84">
+        <v>1188.6684471863057</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>41.239849624619275</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.4500000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>39.900000000000091</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.11152882205513873</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1224.7516629737161</v>
+      </c>
+      <c r="W84">
+        <v>1288.5120486457683</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-63.76038567205228</v>
+      </c>
+      <c r="Y84">
+        <v>-68.563095919703414</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1192</v>
+      </c>
+      <c r="D85">
+        <v>1212</v>
+      </c>
+      <c r="E85">
+        <v>1182.3</v>
+      </c>
+      <c r="F85">
+        <v>1196.95</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1197.0833333333333</v>
+      </c>
+      <c r="H85">
+        <v>1202.9809081203121</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1230.1117326629055</v>
+      </c>
+      <c r="K85">
+        <v>1187.2532367004599</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>42.575907511234647</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>14.650000000000091</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>29.700000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.49326599326599557</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1220.4744840546828</v>
+      </c>
+      <c r="W85">
+        <v>1281.7296746720078</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-61.25519061732507</v>
+      </c>
+      <c r="Y85">
+        <v>-67.101514859227748</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1202</v>
+      </c>
+      <c r="D86">
+        <v>1227</v>
+      </c>
+      <c r="E86">
+        <v>1186.2</v>
+      </c>
+      <c r="F86">
+        <v>1195.5</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1202.8999999999999</v>
+      </c>
+      <c r="H86">
+        <v>1202.9404540601558</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1229.4202365155932</v>
+      </c>
+      <c r="K86">
+        <v>1187.0191841003577</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>41.885439661232958</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>9.2999999999999545</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>40.799999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.22794117647058737</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1216.6322557385777</v>
+      </c>
+      <c r="W86">
+        <v>1275.3422913629702</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-58.710035624392503</v>
+      </c>
+      <c r="Y86">
+        <v>-65.423219012260702</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1194</v>
+      </c>
+      <c r="D87">
+        <v>1216.3</v>
+      </c>
+      <c r="E87">
+        <v>1194</v>
+      </c>
+      <c r="F87">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1203.4666666666667</v>
+      </c>
+      <c r="H87">
+        <v>1203.2035603634113</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>1226.5046284010168</v>
+      </c>
+      <c r="K87">
+        <v>1188.5704765225005</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>45.396967783146707</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>6.0999999999999091</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>22.299999999999955</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.27354260089685745</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1214.0888317787965</v>
+      </c>
+      <c r="W87">
+        <v>1269.7687882990465</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-55.679956520250016</v>
+      </c>
+      <c r="Y87">
+        <v>-63.474566513858562</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1202</v>
+      </c>
+      <c r="D88">
+        <v>1217.55</v>
+      </c>
+      <c r="E88">
+        <v>1182.4000000000001</v>
+      </c>
+      <c r="F88">
+        <v>1196</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1198.6499999999999</v>
+      </c>
+      <c r="H88">
+        <v>1200.9267801817055</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1224.5147109785687</v>
+      </c>
+      <c r="K88">
+        <v>1187.1992595175004</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>42.533586159255691</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>13.599999999999909</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>35.149999999999864</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.38691322901849107</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1211.3059345820586</v>
+      </c>
+      <c r="W88">
+        <v>1264.3044336102282</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-52.99849902816959</v>
+      </c>
+      <c r="Y88">
+        <v>-61.379353016720771</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1209</v>
+      </c>
+      <c r="D89">
+        <v>1212.0999999999999</v>
+      </c>
+      <c r="E89">
+        <v>1193.75</v>
+      </c>
+      <c r="F89">
+        <v>1197.3499999999999</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1201.0666666666666</v>
+      </c>
+      <c r="H89">
+        <v>1200.996723424186</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1221.7558863166646</v>
+      </c>
+      <c r="K89">
+        <v>1188.6549796247225</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>43.987691222638389</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999091</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>18.349999999999909</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.19618528610353825</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1209.1588677232803</v>
+      </c>
+      <c r="W89">
+        <v>1259.3448459353965</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-50.185978212116197</v>
+      </c>
+      <c r="Y89">
+        <v>-59.140678055799853</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1197</v>
+      </c>
+      <c r="D90">
+        <v>1203.75</v>
+      </c>
+      <c r="E90">
+        <v>1190</v>
+      </c>
+      <c r="F90">
+        <v>1200.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1198.0833333333333</v>
+      </c>
+      <c r="H90">
+        <v>1199.5400283787596</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1217.7545782462946</v>
+      </c>
+      <c r="K90">
+        <v>1188.9538730414508</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>47.837398695564865</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>10.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>13.75</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.76363636363636367</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1207.8267342273909</v>
+      </c>
+      <c r="W90">
+        <v>1254.9859684587004</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-47.159234231309483</v>
+      </c>
+      <c r="Y90">
+        <v>-56.744389290901779</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1203</v>
+      </c>
+      <c r="D91">
+        <v>1215</v>
+      </c>
+      <c r="E91">
+        <v>1193.05</v>
+      </c>
+      <c r="F91">
+        <v>1200.7</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1202.9166666666667</v>
+      </c>
+      <c r="H91">
+        <v>1201.2283475227132</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>1217.142449747118</v>
+      </c>
+      <c r="K91">
+        <v>1189.864123476684</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>48.120388264682546</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>7.6500000000000909</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>21.950000000000045</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.34851936218679158</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1206.730313577023</v>
+      </c>
+      <c r="W91">
+        <v>1250.9647856099077</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-44.234472032884696</v>
+      </c>
+      <c r="Y91">
+        <v>-54.242405839298364</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1209</v>
+      </c>
+      <c r="D92">
+        <v>1215</v>
+      </c>
+      <c r="E92">
+        <v>1177.7</v>
+      </c>
+      <c r="F92">
+        <v>1189.0999999999999</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1193.9333333333332</v>
+      </c>
+      <c r="H92">
+        <v>1197.5808404280233</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1216.666349803314</v>
+      </c>
+      <c r="K92">
+        <v>1187.1609849263098</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>34.536423318130169</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>11.399999999999864</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>37.299999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.30563002680964818</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1204.0179576420965</v>
+      </c>
+      <c r="W92">
+        <v>1246.3822088980628</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-42.364251255966337</v>
+      </c>
+      <c r="Y92">
+        <v>-51.866774922631961</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1205</v>
+      </c>
+      <c r="D93">
+        <v>1205</v>
+      </c>
+      <c r="E93">
+        <v>1170</v>
+      </c>
+      <c r="F93">
+        <v>1176.6500000000001</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1183.8833333333334</v>
+      </c>
+      <c r="H93">
+        <v>1190.7320868806783</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1214.0738276247998</v>
+      </c>
+      <c r="K93">
+        <v>1183.3474327204631</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>25.049619210647045</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>6.6500000000000909</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.19000000000000261</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>1199.8075026202355</v>
+      </c>
+      <c r="W93">
+        <v>1241.2168600907989</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-41.409357470563464</v>
+      </c>
+      <c r="Y93">
+        <v>-49.77529143221826</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1185</v>
+      </c>
+      <c r="D94">
+        <v>1204.45</v>
+      </c>
+      <c r="E94">
+        <v>1172.05</v>
+      </c>
+      <c r="F94">
+        <v>1196</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1190.8333333333333</v>
+      </c>
+      <c r="H94">
+        <v>1190.7827101070056</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1211.9351992637332</v>
+      </c>
+      <c r="K94">
+        <v>1180.8368921159158</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>51.129710870894542</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>23.950000000000045</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>32.400000000000091</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.73919753086419682</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1199.2217329863531</v>
+      </c>
+      <c r="W94">
+        <v>1237.8674630470362</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-38.645730060683036</v>
+      </c>
+      <c r="Y94">
+        <v>-47.549379157911218</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1192.6500000000001</v>
+      </c>
+      <c r="D95">
+        <v>1247.9000000000001</v>
+      </c>
+      <c r="E95">
+        <v>1182</v>
+      </c>
+      <c r="F95">
+        <v>1201.45</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1210.45</v>
+      </c>
+      <c r="H95">
+        <v>1200.616355053503</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1219.9273772051258</v>
+      </c>
+      <c r="K95">
+        <v>1181.0953605346012</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>56.463264617925432</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>19.450000000000045</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>65.900000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.2951441578148713</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1199.5645432961448</v>
+      </c>
+      <c r="W95">
+        <v>1235.1698731917002</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-35.605329895555315</v>
+      </c>
+      <c r="Y95">
+        <v>-45.160569305440035</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1210</v>
+      </c>
+      <c r="D96">
+        <v>1251.2</v>
+      </c>
+      <c r="E96">
+        <v>1210</v>
+      </c>
+      <c r="F96">
+        <v>1232</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1231.0666666666666</v>
+      </c>
+      <c r="H96">
+        <v>1215.8415108600848</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1226.8768489373201</v>
+      </c>
+      <c r="K96">
+        <v>1187.5186137491344</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>75.329234038426847</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>41.200000000000045</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.53398058252427127</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1204.5546135582765</v>
+      </c>
+      <c r="W96">
+        <v>1234.9350677700927</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-30.380454211816186</v>
+      </c>
+      <c r="Y96">
+        <v>-42.204546286715264</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1234.95</v>
+      </c>
+      <c r="D97">
+        <v>1234.95</v>
+      </c>
+      <c r="E97">
+        <v>1206.45</v>
+      </c>
+      <c r="F97">
+        <v>1211.05</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1217.4833333333333</v>
+      </c>
+      <c r="H97">
+        <v>1216.6624220967092</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1228.6708825068044</v>
+      </c>
+      <c r="K97">
+        <v>1191.7255884715489</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>54.92651201052059</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>4.5999999999999091</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>28.5</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.16140350877192663</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1205.5539037800802</v>
+      </c>
+      <c r="W97">
+        <v>1233.1658034908266</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-27.611899710746457</v>
+      </c>
+      <c r="Y97">
+        <v>-39.286016971521505</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1224.7</v>
+      </c>
+      <c r="D98">
+        <v>1224.7</v>
+      </c>
+      <c r="E98">
+        <v>1206.8499999999999</v>
+      </c>
+      <c r="F98">
+        <v>1210</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1213.8500000000001</v>
+      </c>
+      <c r="H98">
+        <v>1215.2562110483545</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1227.788464171959</v>
+      </c>
+      <c r="K98">
+        <v>1195.0865688112046</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>54.010050086849837</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.1500000000000909</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>17.850000000000136</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.17647058823529788</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1206.2379185831448</v>
+      </c>
+      <c r="W98">
+        <v>1231.4498180470616</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-25.211899463916779</v>
+      </c>
+      <c r="Y98">
+        <v>-36.471193470000557</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1211.0999999999999</v>
+      </c>
+      <c r="D99">
+        <v>1244.3</v>
+      </c>
+      <c r="E99">
+        <v>1190.0999999999999</v>
+      </c>
+      <c r="F99">
+        <v>1197</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1210.4666666666665</v>
+      </c>
+      <c r="H99">
+        <v>1212.8614388575106</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1231.4576943559682</v>
+      </c>
+      <c r="K99">
+        <v>1193.9784424087147</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>42.925626502560135</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>6.9000000000000909</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>54.200000000000045</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.12730627306273221</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1204.816700339584</v>
+      </c>
+      <c r="W99">
+        <v>1228.8979796732051</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-24.081279333621069</v>
+      </c>
+      <c r="Y99">
+        <v>-33.993210642724662</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1205</v>
+      </c>
+      <c r="D100">
+        <v>1219.8</v>
+      </c>
+      <c r="E100">
+        <v>1188</v>
+      </c>
+      <c r="F100">
+        <v>1202</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1203.2666666666667</v>
+      </c>
+      <c r="H100">
+        <v>1208.0640527620885</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1228.8670956101976</v>
+      </c>
+      <c r="K100">
+        <v>1192.6498996512225</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>48.051288658859477</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>31.799999999999955</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.44025157232704465</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1204.3833618258018</v>
+      </c>
+      <c r="W100">
+        <v>1226.9055367344492</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-22.522174908647457</v>
+      </c>
+      <c r="Y100">
+        <v>-31.699003495909221</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1206.5</v>
+      </c>
+      <c r="D101">
+        <v>1265</v>
+      </c>
+      <c r="E101">
+        <v>1203.3499999999999</v>
+      </c>
+      <c r="F101">
+        <v>1264</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1244.1166666666666</v>
+      </c>
+      <c r="H101">
+        <v>1226.0903597143774</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1236.8966299190427</v>
+      </c>
+      <c r="K101">
+        <v>1195.0276997287285</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>78.282348777395498</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>60.650000000000091</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>61.650000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.98377939983779406</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>1213.5551523141401</v>
+      </c>
+      <c r="W101">
+        <v>1229.6532747541196</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-16.098122439979534</v>
+      </c>
+      <c r="Y101">
+        <v>-28.578827284723282</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1280</v>
+      </c>
+      <c r="D102">
+        <v>1297.6500000000001</v>
+      </c>
+      <c r="E102">
+        <v>1195.8</v>
+      </c>
+      <c r="F102">
+        <v>1210</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1234.4833333333333</v>
+      </c>
+      <c r="H102">
+        <v>1230.2868465238553</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1250.397378825922</v>
+      </c>
+      <c r="K102">
+        <v>1195.1993220112333</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>47.921192884368693</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>14.200000000000045</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>101.85000000000014</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.13942071674030462</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1213.0082058042724</v>
+      </c>
+      <c r="W102">
+        <v>1228.1974766241849</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-15.189270819912508</v>
+      </c>
+      <c r="Y102">
+        <v>-25.900915991761128</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1219.95</v>
+      </c>
+      <c r="D103">
+        <v>1219.95</v>
+      </c>
+      <c r="E103">
+        <v>1170.4000000000001</v>
+      </c>
+      <c r="F103">
+        <v>1189.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1193.2833333333335</v>
+      </c>
+      <c r="H103">
+        <v>1211.7850899285945</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1243.6312946423839</v>
+      </c>
+      <c r="K103">
+        <v>1189.6883615642926</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>40.472434356853107</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>19.099999999999909</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>49.549999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.3854692230070621</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1209.3915587574613</v>
+      </c>
+      <c r="W103">
+        <v>1225.3309968742453</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-15.939438116784004</v>
+      </c>
+      <c r="Y103">
+        <v>-23.908620416765704</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1195</v>
+      </c>
+      <c r="D104">
+        <v>1214</v>
+      </c>
+      <c r="E104">
+        <v>1182.5999999999999</v>
+      </c>
+      <c r="F104">
+        <v>1195.05</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1197.2166666666665</v>
+      </c>
+      <c r="H104">
+        <v>1204.5008782976306</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1237.0465624996318</v>
+      </c>
+      <c r="K104">
+        <v>1188.1131701055608</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>43.447244027246946</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>12.450000000000045</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>31.400000000000091</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.3964968152866245</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1207.1851651024672</v>
+      </c>
+      <c r="W104">
+        <v>1223.0879600687456</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-15.902794966278407</v>
+      </c>
+      <c r="Y104">
+        <v>-22.307455326668244</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1214</v>
+      </c>
+      <c r="D105">
+        <v>1214</v>
+      </c>
+      <c r="E105">
+        <v>1137.3</v>
+      </c>
+      <c r="F105">
+        <v>1142</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1164.4333333333334</v>
+      </c>
+      <c r="H105">
+        <v>1184.467105815482</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1231.9251041663804</v>
+      </c>
+      <c r="K105">
+        <v>1176.8213545265473</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>27.203918564560091</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>4.7000000000000455</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>76.700000000000045</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>6.127770534550251E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1197.1566781636261</v>
+      </c>
+      <c r="W105">
+        <v>1217.0814445080978</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-19.924766344471664</v>
+      </c>
+      <c r="Y105">
+        <v>-21.830917530228927</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1145.1500000000001</v>
+      </c>
+      <c r="D106">
+        <v>1155</v>
+      </c>
+      <c r="E106">
+        <v>1120.05</v>
+      </c>
+      <c r="F106">
+        <v>1135</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1136.6833333333334</v>
+      </c>
+      <c r="H106">
+        <v>1160.5752195744076</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1214.8306365738515</v>
+      </c>
+      <c r="K106">
+        <v>1164.2054979650923</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>25.623836880831835</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>34.950000000000045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.42775393419170316</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1187.5941122922991</v>
+      </c>
+      <c r="W106">
+        <v>1211.001337507498</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-23.407225215198878</v>
+      </c>
+      <c r="Y106">
+        <v>-22.146179067222917</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1149</v>
+      </c>
+      <c r="D107">
+        <v>1155.9000000000001</v>
+      </c>
+      <c r="E107">
+        <v>1130.3499999999999</v>
+      </c>
+      <c r="F107">
+        <v>1134.8499999999999</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1140.3666666666666</v>
+      </c>
+      <c r="H107">
+        <v>1150.470943120537</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1201.7349395574402</v>
+      </c>
+      <c r="K107">
+        <v>1156.6820539728494</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>25.584033467248251</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>25.550000000000182</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.17612524461839404</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>1179.4796334780992</v>
+      </c>
+      <c r="W107">
+        <v>1205.3604976921276</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-25.880864214028406</v>
+      </c>
+      <c r="Y107">
+        <v>-22.893116096584016</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>1153</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>1146.1500000000001</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>1143.1500000000001</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>1140.1000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
